--- a/traffic_sign_comparison_overfit_underfit.xlsx
+++ b/traffic_sign_comparison_overfit_underfit.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Endymion/Documents/Udacity/Self-Driving Car Engineer/Projects/CarND-Traffic-Sign-Classifier-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C11D62-0D91-A74B-9E20-449DA6794BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B47E7F-394E-E442-B6A3-9D67B4876AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44380" yWindow="3120" windowWidth="27180" windowHeight="16940" xr2:uid="{17B2EE07-0078-2341-A536-6F58F7A44A65}"/>
+    <workbookView xWindow="42520" yWindow="3700" windowWidth="27180" windowHeight="16940" xr2:uid="{17B2EE07-0078-2341-A536-6F58F7A44A65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>ClassId</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>Capped at 1250</t>
+  </si>
+  <si>
+    <t>Capped at 960</t>
   </si>
 </sst>
 </file>
@@ -559,22 +565,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0C9E18-A188-EE41-AC12-2875E177B3E9}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,19 +591,35 @@
       <c r="C1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+      <c r="D2">
+        <v>1250</v>
+      </c>
+      <c r="E2">
+        <v>960</v>
+      </c>
+      <c r="F2">
+        <f>IF(C2&gt;960,960,C2)</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -606,178 +629,258 @@
       <c r="C3">
         <v>1980</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3">
+        <v>1250</v>
+      </c>
+      <c r="E3">
+        <v>960</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F44" si="0">IF(C3&gt;960,960,C3)</f>
+        <v>960</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1920</v>
+      </c>
+      <c r="D4">
+        <v>1250</v>
+      </c>
+      <c r="E4">
+        <v>960</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1920</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1890</v>
+      </c>
+      <c r="D5">
+        <v>1250</v>
+      </c>
+      <c r="E5">
+        <v>960</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>1650</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>1860</v>
+      </c>
+      <c r="D6">
+        <v>1250</v>
+      </c>
+      <c r="E6">
+        <v>960</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>1290</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1800</v>
+      </c>
+      <c r="D7">
+        <v>1250</v>
+      </c>
+      <c r="E7">
+        <v>960</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>990</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7">
+        <v>210</v>
+      </c>
+      <c r="N7">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>2010</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1770</v>
+      </c>
+      <c r="D8">
+        <v>1250</v>
+      </c>
+      <c r="E8">
+        <v>960</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>690</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>1650</v>
       </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1260</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5">
-        <v>1290</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1770</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>1920</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1650</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D9">
+        <v>1250</v>
+      </c>
+      <c r="E9">
+        <v>960</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="F7">
-        <v>690</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7">
-        <v>210</v>
-      </c>
-      <c r="L7">
+      <c r="H9">
+        <v>330</v>
+      </c>
+      <c r="I9">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>360</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8">
-        <v>990</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1290</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9">
-        <v>330</v>
-      </c>
-      <c r="G9">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C10">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1350</v>
+      </c>
+      <c r="D10">
+        <v>1250</v>
+      </c>
+      <c r="E10">
+        <v>960</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,151 +890,291 @@
       <c r="C11">
         <v>1320</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1250</v>
+      </c>
+      <c r="E11">
+        <v>960</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1290</v>
+      </c>
+      <c r="D12">
+        <v>1250</v>
+      </c>
+      <c r="E12">
+        <v>960</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1260</v>
+      </c>
+      <c r="D13">
+        <v>1250</v>
+      </c>
+      <c r="E13">
+        <v>960</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="C14">
+        <v>1260</v>
+      </c>
+      <c r="D14">
+        <v>1250</v>
+      </c>
+      <c r="E14">
+        <v>960</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>1170</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D15">
+        <v>1170</v>
+      </c>
+      <c r="E15">
+        <v>960</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1080</v>
+      </c>
+      <c r="D16">
+        <v>1080</v>
+      </c>
+      <c r="E16">
+        <v>960</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>1080</v>
+      </c>
+      <c r="D17">
+        <v>1080</v>
+      </c>
+      <c r="E17">
+        <v>960</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>990</v>
+      </c>
+      <c r="D18">
+        <v>990</v>
+      </c>
+      <c r="E18">
+        <v>960</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>690</v>
+      </c>
+      <c r="D19">
+        <v>690</v>
+      </c>
+      <c r="E19">
+        <v>690</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>690</v>
+      </c>
+      <c r="D20">
+        <v>690</v>
+      </c>
+      <c r="E20">
+        <v>690</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>599</v>
+      </c>
+      <c r="D21">
+        <v>599</v>
+      </c>
+      <c r="E21">
+        <v>599</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C22">
         <v>540</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>540</v>
+      </c>
+      <c r="E22">
+        <v>540</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="D23">
+        <v>540</v>
+      </c>
+      <c r="E23">
+        <v>540</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="D24">
+        <v>480</v>
+      </c>
+      <c r="E24">
+        <v>480</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -941,220 +1184,420 @@
       <c r="C25">
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>450</v>
+      </c>
+      <c r="E25">
+        <v>450</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>390</v>
+      </c>
+      <c r="D26">
+        <v>390</v>
+      </c>
+      <c r="E26">
+        <v>390</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>360</v>
+      </c>
+      <c r="D27">
+        <v>360</v>
+      </c>
+      <c r="E27">
+        <v>360</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>360</v>
+      </c>
+      <c r="D28">
+        <v>360</v>
+      </c>
+      <c r="E28">
+        <v>360</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>360</v>
+      </c>
+      <c r="D29">
+        <v>360</v>
+      </c>
+      <c r="E29">
+        <v>360</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C30">
+        <v>330</v>
+      </c>
+      <c r="D30">
+        <v>330</v>
+      </c>
+      <c r="E30">
+        <v>330</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>330</v>
+      </c>
+      <c r="D31">
+        <v>330</v>
+      </c>
+      <c r="E31">
+        <v>330</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>300</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>270</v>
+      </c>
+      <c r="D34">
+        <v>270</v>
+      </c>
+      <c r="E34">
+        <v>270</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>270</v>
+      </c>
+      <c r="D35">
+        <v>270</v>
+      </c>
+      <c r="E35">
+        <v>270</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C36">
         <v>240</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="D36">
+        <v>240</v>
+      </c>
+      <c r="E36">
+        <v>240</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>240</v>
+      </c>
+      <c r="D37">
+        <v>240</v>
+      </c>
+      <c r="E37">
+        <v>240</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="C38">
         <v>210</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D38">
+        <v>210</v>
+      </c>
+      <c r="E38">
+        <v>210</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>32</v>
       </c>
-      <c r="C32">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
+      <c r="C39">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="D39">
+        <v>210</v>
+      </c>
+      <c r="E39">
+        <v>210</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>210</v>
+      </c>
+      <c r="D40">
+        <v>210</v>
+      </c>
+      <c r="E40">
+        <v>210</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>210</v>
+      </c>
+      <c r="D41">
+        <v>210</v>
+      </c>
+      <c r="E41">
+        <v>210</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>180</v>
+      </c>
+      <c r="D42">
+        <v>180</v>
+      </c>
+      <c r="E42">
+        <v>180</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>19</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>180</v>
+      </c>
+      <c r="D43">
+        <v>180</v>
+      </c>
+      <c r="E43">
+        <v>180</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>37</v>
       </c>
-      <c r="C37">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44">
-        <v>210</v>
+      <c r="D44">
+        <v>180</v>
+      </c>
+      <c r="E44">
+        <v>180</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C44" xr:uid="{ADF513E0-C47A-A14E-8BEA-0F71268EB6E4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
-      <sortCondition ref="A1:A44"/>
+  <autoFilter ref="A1:E44" xr:uid="{47CA2613-82EE-084E-94B7-468F701DC796}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
+      <sortCondition descending="1" ref="D1:D44"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
